--- a/data/trans_orig/VUL_ANS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en País Vasco</t>
+          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en Andalucia</t>
+          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en C.Valenciana</t>
+          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_ANS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Edad-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>757</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>461</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2309</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>5066</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61808</t>
+          <t>74805</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60596</t>
+          <t>72796</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62398</t>
+          <t>75977</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61145</t>
+          <t>65117</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59367</t>
+          <t>63957</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62004</t>
+          <t>65781</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>122953</t>
+          <t>139922</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>121132</t>
+          <t>137910</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>124018</t>
+          <t>141319</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,84%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,67 +1078,67 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>487</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>2241</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2992</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>2,4%</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1730</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>820</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>3142</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
-      </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,22 +1148,22 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3973</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1191,67 +1191,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68128</t>
+          <t>73387</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67254</t>
+          <t>72247</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68623</t>
+          <t>74001</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>96,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99,35%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>67482</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>66149</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>68274</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>97,6%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>99,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>61614</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>60202</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>62524</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>97,27%</t>
-        </is>
-      </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>129742</t>
+          <t>140868</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>128279</t>
+          <t>139323</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>130710</t>
+          <t>141948</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>638</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>2686</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4375</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6339</t>
+          <t>6238</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>5597</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8348</t>
+          <t>7922</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93488</t>
+          <t>102761</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92077</t>
+          <t>101493</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94312</t>
+          <t>103541</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93433</t>
+          <t>106861</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91469</t>
+          <t>104802</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95116</t>
+          <t>108350</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>186921</t>
+          <t>209622</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>184432</t>
+          <t>207297</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>188665</t>
+          <t>211211</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,14%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5068</t>
+          <t>4940</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>3246</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7325</t>
+          <t>6906</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5582</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3728</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7992</t>
+          <t>7368</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>10650</t>
+          <t>10082</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>7949</t>
+          <t>7609</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>13610</t>
+          <t>12937</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>133132</t>
+          <t>139478</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>130875</t>
+          <t>137512</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>134878</t>
+          <t>141172</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>132508</t>
+          <t>147314</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>130098</t>
+          <t>145088</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>134362</t>
+          <t>148969</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>265641</t>
+          <t>286792</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>262681</t>
+          <t>283937</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>268342</t>
+          <t>289265</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>97,44%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6985</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10028</t>
+          <t>9185</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9352</t>
+          <t>9261</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7008</t>
+          <t>6852</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12465</t>
+          <t>12149</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>16337</t>
+          <t>15659</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>13113</t>
+          <t>12359</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>20509</t>
+          <t>19545</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>119222</t>
+          <t>122867</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>116179</t>
+          <t>120080</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>121555</t>
+          <t>124843</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>137353</t>
+          <t>142761</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>134240</t>
+          <t>139873</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>139697</t>
+          <t>145170</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>92,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>256574</t>
+          <t>265628</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>252402</t>
+          <t>261742</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>259798</t>
+          <t>268928</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5095</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7045</t>
+          <t>8054</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5159</t>
+          <t>5767</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9487</t>
+          <t>10855</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>10094</t>
+          <t>11344</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>7876</t>
+          <t>8616</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>13254</t>
+          <t>14643</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>101049</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>102276</t>
+          <t>98805</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>105584</t>
+          <t>102456</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>107989</t>
+          <t>107868</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>105547</t>
+          <t>105067</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>109875</t>
+          <t>110155</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>212310</t>
+          <t>208917</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>209150</t>
+          <t>205618</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>214528</t>
+          <t>211645</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,09%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>2595</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2084</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5714</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12671</t>
+          <t>12986</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9926</t>
+          <t>10371</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>15840</t>
+          <t>16399</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,17 +2863,17 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>16176</t>
+          <t>15581</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>13349</t>
+          <t>12827</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>19785</t>
+          <t>18973</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,59%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>92618</t>
+          <t>86491</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>90409</t>
+          <t>85084</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>94039</t>
+          <t>87575</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>120689</t>
+          <t>118841</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>117520</t>
+          <t>115428</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>123434</t>
+          <t>121456</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,17 +2976,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>213307</t>
+          <t>205332</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>209698</t>
+          <t>201940</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>216134</t>
+          <t>208086</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>94,19%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>21833</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17901</t>
+          <t>18090</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>26567</t>
+          <t>25986</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>42102</t>
+          <t>42406</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>37072</t>
+          <t>37628</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>48439</t>
+          <t>48571</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>63935</t>
+          <t>64079</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>57434</t>
+          <t>57488</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>70737</t>
+          <t>71215</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>672717</t>
+          <t>700838</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>667983</t>
+          <t>696524</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>676649</t>
+          <t>704420</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>714731</t>
+          <t>756244</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>708394</t>
+          <t>750079</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>719761</t>
+          <t>761022</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1387448</t>
+          <t>1457081</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1380646</t>
+          <t>1449945</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1393949</t>
+          <t>1463672</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>96,22%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20828</t>
+          <t>21397</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6119</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27824</t>
+          <t>26985</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10689</t>
+          <t>10833</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>39735</t>
+          <t>40181</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,55%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>215408</t>
+          <t>214839</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>234424</t>
+          <t>234292</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>156529</t>
+          <t>157368</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>178234</t>
+          <t>178364</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>380854</t>
+          <t>380408</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>409900</t>
+          <t>409756</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>97,42%</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8068</t>
+          <t>9870</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6510</t>
+          <t>6653</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27378</t>
+          <t>28318</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9206</t>
+          <t>9383</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28929</t>
+          <t>30225</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,56%</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>221300</t>
+          <t>219498</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>287050</t>
+          <t>286110</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>307918</t>
+          <t>307775</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>514867</t>
+          <t>513571</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>534590</t>
+          <t>534413</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,27%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5458</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19745</t>
+          <t>20924</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11256</t>
+          <t>11510</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24023</t>
+          <t>23749</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>19407</t>
+          <t>19513</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>38787</t>
+          <t>39569</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>291024</t>
+          <t>289845</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>305311</t>
+          <t>305083</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>297819</t>
+          <t>298093</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>310586</t>
+          <t>310332</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>593823</t>
+          <t>593041</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>613203</t>
+          <t>613097</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,92%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6131</t>
+          <t>6403</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42442</t>
+          <t>44101</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32379</t>
+          <t>32435</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>52004</t>
+          <t>51966</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>32188</t>
+          <t>31807</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>91085</t>
+          <t>89188</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>583678</t>
+          <t>582019</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>619989</t>
+          <t>619717</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>352798</t>
+          <t>352836</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>372423</t>
+          <t>372367</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>939837</t>
+          <t>941734</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>998734</t>
+          <t>999115</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>96,91%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15133</t>
+          <t>15463</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32218</t>
+          <t>32912</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33313</t>
+          <t>33324</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52377</t>
+          <t>52604</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>53342</t>
+          <t>54178</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>78260</t>
+          <t>79665</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>12,12%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>306080</t>
+          <t>305386</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>323165</t>
+          <t>322835</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>266517</t>
+          <t>266290</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>285581</t>
+          <t>285570</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>83,5%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>578932</t>
+          <t>577527</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>603850</t>
+          <t>603014</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>91,76%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7325</t>
+          <t>7243</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8411</t>
+          <t>6200</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>54633</t>
+          <t>54155</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>13307</t>
+          <t>12879</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>48763</t>
+          <t>49586</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>200041</t>
+          <t>200123</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>206324</t>
+          <t>206148</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>398009</t>
+          <t>398487</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>444231</t>
+          <t>446442</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>88,04%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>611245</t>
+          <t>610422</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>646701</t>
+          <t>647129</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>98,05%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3478</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12196</t>
+          <t>11896</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>21145</t>
+          <t>21227</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36781</t>
+          <t>36731</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>26567</t>
+          <t>26068</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>44295</t>
+          <t>43867</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>139579</t>
+          <t>139879</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>148297</t>
+          <t>148558</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>197317</t>
+          <t>197367</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>212953</t>
+          <t>212871</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>84,31%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>341578</t>
+          <t>342006</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>359306</t>
+          <t>359805</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>93,24%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>51039</t>
+          <t>49081</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>100326</t>
+          <t>96724</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>139154</t>
+          <t>127085</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>220629</t>
+          <t>217068</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>212120</t>
+          <t>210217</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>307220</t>
+          <t>303414</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1999605</t>
+          <t>2003207</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2048892</t>
+          <t>2050850</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2010430</t>
+          <t>2013991</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2091905</t>
+          <t>2103974</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4023770</t>
+          <t>4027576</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4118870</t>
+          <t>4120773</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,15%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_ANS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20659</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1929</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>757</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3938</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>14541</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>6006</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2285</t>
+          <t>27517</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>21888</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>11233</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>5066</t>
+          <t>40202</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>8,72%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74805</t>
+          <t>233918</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72796</t>
+          <t>220606</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75977</t>
+          <t>239556</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65117</t>
+          <t>205114</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63957</t>
+          <t>192138</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65781</t>
+          <t>213649</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>202</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>139922</t>
+          <t>439032</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>137910</t>
+          <t>420718</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>141319</t>
+          <t>449687</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>97,56%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,72 +1073,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>5068</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2241</t>
+          <t>13591</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>17720</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>9901</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>28063</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>22788</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>13567</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>4306</t>
+          <t>35047</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73387</t>
+          <t>256906</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72247</t>
+          <t>248383</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74001</t>
+          <t>260357</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>234</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67482</t>
+          <t>265733</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66149</t>
+          <t>255390</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>68274</t>
+          <t>273552</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>384</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>140868</t>
+          <t>522638</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>139323</t>
+          <t>510379</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>141948</t>
+          <t>531859</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>97,51%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>12209</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>6679</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2686</t>
+          <t>23516</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>19838</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6238</t>
+          <t>27555</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5597</t>
+          <t>32047</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>22707</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7922</t>
+          <t>44063</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>5,95%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102761</t>
+          <t>356109</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>101493</t>
+          <t>344802</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103541</t>
+          <t>361639</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>466</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>106861</t>
+          <t>352779</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>104802</t>
+          <t>345062</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>108350</t>
+          <t>359358</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>769</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>209622</t>
+          <t>708888</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>207297</t>
+          <t>696872</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>211211</t>
+          <t>718228</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>96,94%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>492</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>805</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4940</t>
+          <t>25031</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3246</t>
+          <t>16325</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6906</t>
+          <t>37090</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>45379</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>36270</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7368</t>
+          <t>56826</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>10082</t>
+          <t>70410</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>7609</t>
+          <t>57170</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>12937</t>
+          <t>86321</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>9,99%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>139478</t>
+          <t>397783</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137512</t>
+          <t>385724</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>141172</t>
+          <t>406489</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>592</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>147314</t>
+          <t>395913</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>145088</t>
+          <t>384466</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>148969</t>
+          <t>405022</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>959</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>286792</t>
+          <t>793696</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>283937</t>
+          <t>777785</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>289265</t>
+          <t>806936</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>93,38%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>864106</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>864106</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>864106</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>23116</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4422</t>
+          <t>15197</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9185</t>
+          <t>33172</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9261</t>
+          <t>48180</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6852</t>
+          <t>37827</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12149</t>
+          <t>59041</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15659</t>
+          <t>71296</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12359</t>
+          <t>59285</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19545</t>
+          <t>86230</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>11,85%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>122867</t>
+          <t>344003</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>120080</t>
+          <t>333947</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>124843</t>
+          <t>351922</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>142761</t>
+          <t>312186</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>139873</t>
+          <t>301325</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>145170</t>
+          <t>322539</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>83,62%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>865</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>265628</t>
+          <t>656189</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>261742</t>
+          <t>641255</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>268928</t>
+          <t>668200</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>91,85%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>367119</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>367119</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>367119</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>727485</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>727485</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>727485</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>7676</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8054</t>
+          <t>30919</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5767</t>
+          <t>23716</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10855</t>
+          <t>38918</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>11344</t>
+          <t>34471</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>26586</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>14643</t>
+          <t>44534</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>101049</t>
+          <t>226852</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>98805</t>
+          <t>222728</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>102456</t>
+          <t>229107</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>107868</t>
+          <t>239113</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>105067</t>
+          <t>231114</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>110155</t>
+          <t>246316</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>208917</t>
+          <t>465965</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>205618</t>
+          <t>455902</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>211645</t>
+          <t>473850</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>94,69%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>7336</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>13475</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12986</t>
+          <t>31988</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>10371</t>
+          <t>24681</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>16399</t>
+          <t>42724</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>15581</t>
+          <t>39325</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>12827</t>
+          <t>29945</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>18973</t>
+          <t>50181</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>11,87%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86491</t>
+          <t>158245</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>85084</t>
+          <t>152106</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>87575</t>
+          <t>161795</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>118841</t>
+          <t>225131</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>115428</t>
+          <t>214395</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>121456</t>
+          <t>232438</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>613</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>205332</t>
+          <t>383375</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>201940</t>
+          <t>372519</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>208086</t>
+          <t>392755</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>92,92%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>442</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257119</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257119</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257119</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>673</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>422700</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>422700</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>422700</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>21672</t>
+          <t>83660</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18090</t>
+          <t>64475</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>25986</t>
+          <t>105053</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>290</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>42406</t>
+          <t>208565</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>37628</t>
+          <t>184529</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>48571</t>
+          <t>233295</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>369</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>64079</t>
+          <t>292225</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>57488</t>
+          <t>261187</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>71215</t>
+          <t>325038</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>7,63%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3947</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>700838</t>
+          <t>1973816</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>696524</t>
+          <t>1952423</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>704420</t>
+          <t>1993001</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4226</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>756244</t>
+          <t>1995968</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>750079</t>
+          <t>1971238</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>761022</t>
+          <t>2020004</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8173</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1457081</t>
+          <t>3969784</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1449945</t>
+          <t>3936971</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1463672</t>
+          <t>4000822</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>93,87%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2057476</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2057476</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2057476</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2204533</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2204533</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2204533</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8543</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4262009</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4262009</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4262009</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7416</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21397</t>
+          <t>8476</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14080</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5989</t>
+          <t>643</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>26985</t>
+          <t>5465</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>21496</t>
+          <t>6244</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10833</t>
+          <t>3194</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40181</t>
+          <t>11570</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>3,4%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>228820</t>
+          <t>166254</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>214839</t>
+          <t>161695</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>234292</t>
+          <t>168733</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>265</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>170273</t>
+          <t>168115</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>157368</t>
+          <t>164977</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>178364</t>
+          <t>169799</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>531</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>399093</t>
+          <t>334369</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>380408</t>
+          <t>329043</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>409756</t>
+          <t>337419</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>99,06%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9870</t>
+          <t>7569</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16339</t>
+          <t>6704</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6653</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28318</t>
+          <t>12554</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>18237</t>
+          <t>10361</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9383</t>
+          <t>6193</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30225</t>
+          <t>17037</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>227470</t>
+          <t>178557</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>219498</t>
+          <t>174644</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229202</t>
+          <t>180890</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>306</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>298089</t>
+          <t>205188</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>286110</t>
+          <t>199338</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>307775</t>
+          <t>208594</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>589</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>525559</t>
+          <t>383744</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>513571</t>
+          <t>377068</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>534413</t>
+          <t>387912</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>98,43%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>605</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4408,102 +4408,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10944</t>
+          <t>5631</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20924</t>
+          <t>10592</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16999</t>
+          <t>12154</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11510</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23749</t>
+          <t>17974</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17785</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>11747</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>25092</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
           <t>3,58%</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>7,38%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>27943</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>19513</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>39569</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>299825</t>
+          <t>243290</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>289845</t>
+          <t>238329</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>305083</t>
+          <t>246469</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>304843</t>
+          <t>235064</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>298093</t>
+          <t>229244</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>310332</t>
+          <t>239797</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>478354</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>471047</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>484392</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
           <t>96,42%</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>769</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>604667</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>593041</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>613097</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>95,58%</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>97,63%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>404</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>797</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22799</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6403</t>
+          <t>3075</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44101</t>
+          <t>10178</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41051</t>
+          <t>10974</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32435</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51966</t>
+          <t>17788</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>63850</t>
+          <t>16848</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>31807</t>
+          <t>11520</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>89188</t>
+          <t>24595</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>603321</t>
+          <t>290791</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>582019</t>
+          <t>286488</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>619717</t>
+          <t>293591</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>363751</t>
+          <t>267984</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>352836</t>
+          <t>261170</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>372367</t>
+          <t>272352</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>912</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>967072</t>
+          <t>558775</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>941734</t>
+          <t>551028</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>999115</t>
+          <t>564103</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>98,0%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>626120</t>
+          <t>296666</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>626120</t>
+          <t>296666</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>626120</t>
+          <t>296666</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>941</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1030922</t>
+          <t>575623</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1030922</t>
+          <t>575623</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1030922</t>
+          <t>575623</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23052</t>
+          <t>9371</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15463</t>
+          <t>5247</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32912</t>
+          <t>15215</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42486</t>
+          <t>17664</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33324</t>
+          <t>12019</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52604</t>
+          <t>25348</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>65538</t>
+          <t>27035</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>54178</t>
+          <t>19683</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>79665</t>
+          <t>36423</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>315246</t>
+          <t>224820</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>305386</t>
+          <t>218976</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>322835</t>
+          <t>228944</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>276408</t>
+          <t>236432</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>266290</t>
+          <t>228748</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>285570</t>
+          <t>242077</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,5%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>591654</t>
+          <t>461252</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>577527</t>
+          <t>451864</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>603014</t>
+          <t>468604</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>95,97%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>338298</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>338298</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>338298</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>787</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>657192</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>657192</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>657192</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7243</t>
+          <t>5607</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27809</t>
+          <t>11532</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6200</t>
+          <t>7966</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>54155</t>
+          <t>15840</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>31185</t>
+          <t>14493</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12879</t>
+          <t>10327</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>49586</t>
+          <t>19430</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>203990</t>
+          <t>180562</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>200123</t>
+          <t>177916</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>206148</t>
+          <t>182010</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>424833</t>
+          <t>177450</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>398487</t>
+          <t>173142</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>446442</t>
+          <t>181016</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,04%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>628823</t>
+          <t>358012</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>610422</t>
+          <t>353075</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>647129</t>
+          <t>362178</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>97,23%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>487</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6462</t>
+          <t>5862</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3217</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11896</t>
+          <t>8737</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27783</t>
+          <t>9867</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>21227</t>
+          <t>6615</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36731</t>
+          <t>14901</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>34245</t>
+          <t>15728</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>26068</t>
+          <t>11309</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>43867</t>
+          <t>20866</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>5,79%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>145313</t>
+          <t>141399</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>139879</t>
+          <t>138524</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>148558</t>
+          <t>143640</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>505</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>206315</t>
+          <t>202991</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>197367</t>
+          <t>197957</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>212871</t>
+          <t>206243</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>967</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>351628</t>
+          <t>344391</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>342006</t>
+          <t>339253</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>359805</t>
+          <t>348810</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>96,86%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>483</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>531</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>234098</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>234098</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>234098</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385873</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385873</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385873</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>75947</t>
+          <t>37273</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>49081</t>
+          <t>29586</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>96724</t>
+          <t>48408</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>186547</t>
+          <t>71221</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>127085</t>
+          <t>59386</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>217068</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>223</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>262494</t>
+          <t>108494</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>210217</t>
+          <t>93144</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>303414</t>
+          <t>125113</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2023984</t>
+          <t>1425674</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2003207</t>
+          <t>1414539</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2050850</t>
+          <t>1433361</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2044512</t>
+          <t>1493224</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2013991</t>
+          <t>1479671</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2103974</t>
+          <t>1505059</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>5518</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4068496</t>
+          <t>2918898</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4027576</t>
+          <t>2902279</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4120773</t>
+          <t>2934248</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>96,92%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>2858</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2099931</t>
+          <t>1462947</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2099931</t>
+          <t>1462947</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2099931</t>
+          <t>1462947</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231059</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231059</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231059</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>5741</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4330990</t>
+          <t>3027392</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4330990</t>
+          <t>3027392</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4330990</t>
+          <t>3027392</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
+          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3917</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>757</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8476</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>461</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5465</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>6244</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3194</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11570</t>
+          <t>5066</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>166254</t>
+          <t>74805</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>161695</t>
+          <t>72796</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>168733</t>
+          <t>75977</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>341</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>168115</t>
+          <t>65117</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>164977</t>
+          <t>63957</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>169799</t>
+          <t>65781</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>709</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>334369</t>
+          <t>139922</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>329043</t>
+          <t>137910</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>337419</t>
+          <t>141319</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,84%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>487</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7569</t>
+          <t>2241</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6704</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>867</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12554</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10361</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6193</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>17037</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>178557</t>
+          <t>73387</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>174644</t>
+          <t>72247</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>180890</t>
+          <t>74001</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>361</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>205188</t>
+          <t>67482</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>199338</t>
+          <t>66149</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>208594</t>
+          <t>68274</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>749</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>383744</t>
+          <t>140868</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>377068</t>
+          <t>139323</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>387912</t>
+          <t>141948</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,83%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>767</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>638</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10592</t>
+          <t>2686</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12154</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7421</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17974</t>
+          <t>6238</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17785</t>
+          <t>5597</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11747</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25092</t>
+          <t>7922</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>243290</t>
+          <t>102761</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>238329</t>
+          <t>101493</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>246469</t>
+          <t>103541</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>557</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>235064</t>
+          <t>106861</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>229244</t>
+          <t>104802</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>239797</t>
+          <t>108350</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>478354</t>
+          <t>209622</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>471047</t>
+          <t>207297</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>484392</t>
+          <t>211211</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>98,14%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>4940</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3075</t>
+          <t>3246</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10178</t>
+          <t>6906</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10974</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6606</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17788</t>
+          <t>7368</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>16848</t>
+          <t>10082</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11520</t>
+          <t>7609</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>24595</t>
+          <t>12937</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>772</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>290791</t>
+          <t>139478</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>286488</t>
+          <t>137512</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>293591</t>
+          <t>141172</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>781</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>267984</t>
+          <t>147314</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>261170</t>
+          <t>145088</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>272352</t>
+          <t>148969</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>558775</t>
+          <t>286792</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>551028</t>
+          <t>283937</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>564103</t>
+          <t>289265</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>97,44%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>799</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>296666</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>296666</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>296666</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575623</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575623</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575623</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9371</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15215</t>
+          <t>9185</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17664</t>
+          <t>9261</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12019</t>
+          <t>6852</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25348</t>
+          <t>12149</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>15659</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>12359</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>19545</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
           <t>6,95%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>9,98%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>27035</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>19683</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>36423</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
-      <c r="W16" s="2" t="inlineStr">
-        <is>
-          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>696</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>224820</t>
+          <t>122867</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>218976</t>
+          <t>120080</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>228944</t>
+          <t>124843</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>805</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>236432</t>
+          <t>142761</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>228748</t>
+          <t>139873</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>242077</t>
+          <t>145170</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
+          <t>93,91%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>92,01%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>95,49%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1501</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>265628</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>261742</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>268928</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>94,43%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
           <t>93,05%</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>90,02%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>95,27%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>741</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>461252</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>451864</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>468604</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>94,46%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>92,54%</t>
-        </is>
-      </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>857</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5607</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11532</t>
+          <t>8054</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7966</t>
+          <t>5767</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15840</t>
+          <t>10855</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>14493</t>
+          <t>11344</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>10327</t>
+          <t>8616</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19430</t>
+          <t>14643</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>627</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>180562</t>
+          <t>101049</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>177916</t>
+          <t>98805</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>182010</t>
+          <t>102456</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>658</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>177450</t>
+          <t>107868</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>173142</t>
+          <t>105067</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>181016</t>
+          <t>110155</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>358012</t>
+          <t>208917</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>353075</t>
+          <t>205618</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>362178</t>
+          <t>211645</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>96,09%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>704</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5862</t>
+          <t>2595</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8737</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9867</t>
+          <t>12986</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6615</t>
+          <t>10371</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>14901</t>
+          <t>16399</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>15728</t>
+          <t>15581</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>11309</t>
+          <t>12827</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>20866</t>
+          <t>18973</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>8,59%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>141399</t>
+          <t>86491</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>138524</t>
+          <t>85084</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>143640</t>
+          <t>87575</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>723</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>202991</t>
+          <t>118841</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>197957</t>
+          <t>115428</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>206243</t>
+          <t>121456</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>344391</t>
+          <t>205332</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>339253</t>
+          <t>201940</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>348810</t>
+          <t>208086</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>94,19%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>801</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>37273</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>29586</t>
+          <t>18090</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>48408</t>
+          <t>25986</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>250</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>71221</t>
+          <t>42406</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>59386</t>
+          <t>37628</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>48571</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>370</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>108494</t>
+          <t>64079</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>93144</t>
+          <t>57488</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>125113</t>
+          <t>71215</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1425674</t>
+          <t>700838</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1414539</t>
+          <t>696524</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1433361</t>
+          <t>704420</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1493224</t>
+          <t>756244</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1479671</t>
+          <t>750079</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1505059</t>
+          <t>761022</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>8173</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2918898</t>
+          <t>1457081</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2902279</t>
+          <t>1449945</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2934248</t>
+          <t>1463672</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>96,22%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462947</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462947</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462947</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5741</t>
+          <t>8543</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027392</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027392</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027392</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
